--- a/pred_ohlcv/54_21/2020-01-20 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-4489.37385715</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4499.37385715</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2662.45305715</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2663.14515715</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2687.22505715</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2575.72705715</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2599.62705715</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5812.76285715</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5812.76285715</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5812.26285715</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-7187.62095715</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-7239.25295715</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-13493.20795715</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-14981.54535715</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-14966.54535715</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-15511.92485715</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-15453.27385715</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14703.27395715</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-14643.27395715</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14623.27395715</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-14727.75435715</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-14628.74525715</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-14622.74525715</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-14230.76415715</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-15038.98025715</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-15020.66805715</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-15019.86805715</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-15065.50425715</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-15065.50425715</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-15191.95005715</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15436.87215715</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-15436.37215715</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-15436.58035715</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15479.88535715</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15499.54725715</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-15392.85225715</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-15999.01935715</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-15998.60425715</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-15993.60425715</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16073.60425715</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16193.60425715</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-16313.90105715</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-16313.90105715</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16313.90105715</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-16591.65095715</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-16573.23915714999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-16573.23915714999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-16671.93385714999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-16671.43385714999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16745.75685714999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16755.75685714999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16755.75685714999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16755.47125714999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-16776.42445714999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-16775.92445714999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-17014.70595715</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-17014.20595715</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17014.20595715</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-17064.20585714999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17024.16615714999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-17312.27955714999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-26635.78275714999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-24344.86725715</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2921.943757149999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2639.630357149999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2639.630357149999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4489.37385715</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2687.22505715</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2605.48085715</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4165.831557150001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5726.182257150001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5837.68025715</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5812.76285715</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5812.76285715</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-5812.26285715</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5811.76285715</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5811.26285715</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5810.76285715</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7160.76285715</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-13493.20795715</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-13449.63665715</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-14981.54535715</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-14966.54535715</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-15511.92485715</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-15453.27385715</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14703.27395715</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-14643.27395715</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-14623.27395715</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-14727.75435715</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-14628.74525715</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-14622.74525715</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-14230.76415715</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-15038.98025715</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-15020.66805715</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-15019.86805715</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-15039.86805715</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-14765.50425715</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15191.95005715</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15436.87215715</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-15436.37215715</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-15436.58035715</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15479.88535715</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15499.54725715</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16073.60425715</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16193.60425715</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16313.90105715</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-16573.23915714999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16745.75685714999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16755.75685714999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16755.75685714999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16755.47125714999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-16776.42445714999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17014.20595715</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-17064.20585714999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-25552.79345714999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-25552.79345714999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-25552.79345714999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-26635.78275714999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
